--- a/examples/sources/data/unsolved/to_schedule/2019-03-11.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-11.xlsx
@@ -3711,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" s="2">
         <v>43535</v>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" s="2">
         <v>43535</v>
@@ -3811,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" s="2">
         <v>43535</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O116" s="2">
         <v>43535</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127">
         <v>1</v>
